--- a/Table _Hafsa.xlsx
+++ b/Table _Hafsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hafsa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510D959-2059-48C5-BAFD-77149FE14AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3155149-C08B-4C18-8C34-D22530B521B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{23747EF7-E804-412B-B63F-A6F7BB21A191}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="119">
   <si>
     <t>Comparing the rice husk modification techniques for removal of heavy metals from wastewater
 Zabad Bilquees Khan     Hafsa Nazir</t>
@@ -514,12 +514,103 @@
   <si>
     <t>(Xiang et. al. 2018)</t>
   </si>
+  <si>
+    <t>Raw rice husk</t>
+  </si>
+  <si>
+    <t>Acid treated rice husk</t>
+  </si>
+  <si>
+    <t>Base treated rice husk</t>
+  </si>
+  <si>
+    <t>Pretreatment with HCl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretreatment with epichlorohydrin  </t>
+  </si>
+  <si>
+    <t>(Kumar and Bandyopadhyay, 2005)</t>
+  </si>
+  <si>
+    <t>Epichlorohydrin treated rice husk</t>
+  </si>
+  <si>
+    <t>Modified rice husk</t>
+  </si>
+  <si>
+    <t>Tartaric acid</t>
+  </si>
+  <si>
+    <t>(Wong et. al., 2003)</t>
+  </si>
+  <si>
+    <t>Temprature=27.2°C pH= 5.2</t>
+  </si>
+  <si>
+    <t>Orthophosphoric 
+acid</t>
+  </si>
+  <si>
+    <t>(Dada et. al., 2013)</t>
+  </si>
+  <si>
+    <t>As(V)</t>
+  </si>
+  <si>
+    <t>(Roy et. al., 1993)</t>
+  </si>
+  <si>
+    <t>Pulverized rice husk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulverization </t>
+  </si>
+  <si>
+    <t>Cellulose derived from rice husk</t>
+  </si>
+  <si>
+    <t>Coating with Humic acid</t>
+  </si>
+  <si>
+    <t>pH=6.40</t>
+  </si>
+  <si>
+    <t>pH=5.5</t>
+  </si>
+  <si>
+    <t>(Basu et. al., 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretreatment with ozone </t>
+  </si>
+  <si>
+    <t>(Sugashini and Begum, 2015)</t>
+  </si>
+  <si>
+    <t>Dyestuff-treated Rice Hulls</t>
+  </si>
+  <si>
+    <t>No modification (Control)</t>
+  </si>
+  <si>
+    <t>Hg(II)</t>
+  </si>
+  <si>
+    <t>Pretreatment with Procion Red H-3B</t>
+  </si>
+  <si>
+    <t>Pretreatment with Yellow H-5G</t>
+  </si>
+  <si>
+    <t>(Suemistu et. al., 1986)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +646,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -579,9 +676,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -596,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,31 +1008,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCDC4DF-8A7B-48B5-9FF3-65D4CD0F1C41}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -947,13 +1044,13 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -964,16 +1061,16 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.88</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -987,13 +1084,13 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2.67</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1007,13 +1104,13 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4.03</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1027,34 +1124,34 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>166.68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>91.13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>80.12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>38.880000000000003</v>
       </c>
     </row>
@@ -1068,40 +1165,40 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>173.22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>104.68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>104.38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>47.02</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1115,29 +1212,29 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>54.6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>27.73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>28.83</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1151,18 +1248,18 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>253.6</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -1171,18 +1268,18 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>60.5</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -1191,18 +1288,18 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>5.73</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
@@ -1211,42 +1308,42 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>4.08</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>125.34</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>104.34</v>
       </c>
     </row>
@@ -1254,10 +1351,10 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>34.79</v>
       </c>
     </row>
@@ -1265,69 +1362,69 @@
       <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>62.33</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>34.6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>27.55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>23.47</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>17.2</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1341,33 +1438,33 @@
       <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>42.378</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>56.18</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1375,76 +1472,76 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>48.31</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>41.2</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>112.3</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>14.1</v>
       </c>
     </row>
@@ -1452,10 +1549,10 @@
       <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>21.7</v>
       </c>
     </row>
@@ -1463,125 +1560,571 @@
       <c r="C36" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>26.7</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>14.28</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>115.04</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>120.77</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>26.6</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="4">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="4">
+        <v>20.239999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="4">
+        <v>11.12</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="4">
+        <v>29</v>
+      </c>
+    </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="4">
+        <v>108</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="4">
+        <v>138.88999999999999</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="4">
+        <v>615.11</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="D51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="4">
+        <v>12.41</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4">
+        <v>62.9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="4">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="4">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="4">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="4">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="4">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="4">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="4">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="4">
+        <v>6.08</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
